--- a/DISC/DialectImprovementSprintCoordinator.xlsx
+++ b/DISC/DialectImprovementSprintCoordinator.xlsx
@@ -9,24 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14120" windowHeight="24000" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dialectContains" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="1" r:id="rId2"/>
     <sheet name="mercuryHitList" sheetId="3" r:id="rId3"/>
-    <sheet name="onedcxHitList" sheetId="7" r:id="rId4"/>
-    <sheet name="dryadHitList" sheetId="8" r:id="rId5"/>
-    <sheet name="emlHitList" sheetId="4" r:id="rId6"/>
-    <sheet name="csdgmHitList" sheetId="5" r:id="rId7"/>
-    <sheet name="bdpHitList" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId4"/>
+    <sheet name="csdgm2mercury" sheetId="9" r:id="rId5"/>
+    <sheet name="onedcxHitList" sheetId="7" r:id="rId6"/>
+    <sheet name="dryadHitList" sheetId="8" r:id="rId7"/>
+    <sheet name="emlHitList" sheetId="4" r:id="rId8"/>
+    <sheet name="csdgmHitList" sheetId="5" r:id="rId9"/>
+    <sheet name="bdpHitList" sheetId="6" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Analysis!$A$1:$I$245</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">dryadHitList!$A$1:$A$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dryadHitList!$A$1:$A$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet10!$A$1:$C$75</definedName>
     <definedName name="Column1">[1]recordUnq!#REF!</definedName>
     <definedName name="Concept">#REF!</definedName>
     <definedName name="Dialects">#REF!</definedName>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="771">
   <si>
     <t>Keyword|CSWCoreQueryables</t>
   </si>
@@ -1930,6 +1933,9 @@
     <t>Westernmost Longitude</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Concept|RecommendationSpiral</t>
   </si>
   <si>
@@ -1937,16 +1943,459 @@
   </si>
   <si>
     <t>Unique Concepts</t>
+  </si>
+  <si>
+    <t>CSDGMparallel</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:spdom/csdgm:bounding/csdgm:westbc</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:posaccy/csdgm:vpaccy/csdgm:qvpaccy/csdgm:vpaccyv</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:posaccy/csdgm:vpaccy/csdgm:vpaccyr</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:posaccy/csdgm:vpaccy/csdgm:qvpaccy/csdgm:vpaccyx</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citeinfo/csdgm:edition /csdgm:metadata/csdgm:idinfo/csdgm:citeinfo/csdgm:pubdate</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:udom</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:onlink</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:turnaro</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:stdorder/csdgm:digform/csdgm:digtinfo/csdgm:transize</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:keyword/csdgm:temporal/csdgm:tempkey</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:timeinfo/csdgm:rngdates</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:taxoncl/csdgm:taxonrv[../csdgm:taxonrn='Class']</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:begdate | /csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:begtime</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:spref/csdgm:horizsys/csdgm:geograph</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:spdom/csdgm:bounding</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:spdom/csdgm:bounding/csdgm:southbc</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:procstep/csdgm:srcused</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:sinfo/csdgm:stime</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:procstep/csdgm:srcprod</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:sinfo/csdgm:contrib</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:sinfo/csdgm:abbr</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:srcinfo/csdgm:srccite</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:spdom/csdgm:descgeog</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:secinfo</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:accconst /csdgm:metadata/csdgm:idinfo/csdgm:useconst /csdgm:metadata/csdgm:metainfo/csdgm:metac /csdgm:metadata/csdgm:metainfo/csdgm:metuc</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:useconst</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:status/csdgm:update</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:resdesc</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:title</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:status</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:distributor/csdgm:distorFormat/csdgm:formatName /csdgm:metadata/csdgm:distinfo/csdgm:stdorder/csdgm:digform/csdgm:digtinfo/csdgm:formname</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:pubdate</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:fees</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:ptcontac</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:accconst</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:lworkcit</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdomv/csdgm:rdom/csdgm:attrunit</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdomv/csdgm:rdom/csdgm:rdommin</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdomv/csdgm:rdom/csdgm:rdommax</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdomv/csdgm:rdom/csdgm:attrmres</t>
+  </si>
+  <si>
+    <t>/csdgm:idinfo/csdgm:descript/csdgm:purpose</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:pubinfo/csdgm:pubplace</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:pubinfo/csdgm:publish</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:stdorder/csdgm:digform/csdgm:digtopt/csdgm:onlinopt/csdgm:computer/csdgm:networka/csdgm:networkr</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:procstep/csdgm:proccont</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:procstep/csdgm:procdate</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:procstep/csdgm:procdesc</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:lineage/csdgm:dataqual/csdgm:procstep</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:digform/csdgm:digtinfo/csdgm:formname /csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:geoform</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:keywords/csdgm:place/csdgm:placekt</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:keywords/csdgm:place/csdgm:placekey</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:cntinfo/csdgm:cntvoice /csdgm:metadata/csdgm:metainfo/csdgm:metc/csdgm:cntinfo/csdgm:cntvoice</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:overview/csdgm:eadetcit</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:overview/csdgm:eaover</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:origin</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:ordinst</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:stdorder/csdgm:digform/csdgm:onlinopt/csdgm:networka</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:spdom/csdgm:bounding/csdgm:northbc</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:metainfo/csdgm:metuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/csdgm:metadata/csdgm:metainfo/csdgm:metstdv </t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:metainfo/csdgm:metstdn</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:metainfo/csdgm:metd</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:metainfo/csdgm:metc/csdgm:cntinfo</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:metainfo/csdgm:metac</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:sinfo/csdgm:type</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:logcon</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:keywords/csdgm:theme/csdgm:themekt</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:keywords/csdgm:theme/csdgm:themekey /csdgm:metadata/csdgm:idinfo/csdgm:keywords/csdgm:place/csdgm:placekey</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:posaccy/csdgm:hpaccy/csdgm:qhpaccy/csdgm:hpaccyv</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:comprep</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:posaccy/csdgm:hpaccy/csdgm:qhpaccy/csdgm:hpaccyx</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdomv/csdgm:edom/csdgm:edomvds</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdomv/csdgm:edom/csdgm:edomvd</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdomv/edom/edomv</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:enttyp/csdgm:enttypl</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:enttyp/csdgm:enttypds</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:enttyp/csdgm:enttypd</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:enddate | /csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:endtime</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:avalibl</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:spdom/csdgm:bounding/csdgm:eastbc</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:distliab</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:cntinfo</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:spref/csdgm:horizsys/csdgm:planar/csdgm:gridsys/csdgm:gridsysn</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:datacred</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:codesetd/csdgm:codesets</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:codesetd/csdgm:codesetn</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:browse/csdgm:browset</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:browse/csdgm:browsen</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:browse/csdgm:browsed</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdef</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrlabl</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdefs</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:ataccy/csdgm:quan/csdgm:attval</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:ataccy/csdgm:attarp</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:dataqual/csdgm:ataccy/csdgm:quan/csdgm:attexp</t>
+  </si>
+  <si>
+    <t>/csdgm:metadata/csdgm:idinfo/csdgm:descript/csdgm:abstract</t>
+  </si>
+  <si>
+    <t>/metadata/metainfo/metac</t>
+  </si>
+  <si>
+    <t>/metadata/metainfo/metd</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/citation/citeinfo/pubdate</t>
+  </si>
+  <si>
+    <t>/metadata/distinfo/distributor/distorFormat/formatName /metadata/distinfo/stdorder/digform/digtinfo/formname</t>
+  </si>
+  <si>
+    <t>/idinfo/descript/purpose</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/citation/citeinfo/pubinfo/publish</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/datacred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/metadata/metainfo/metstdv </t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/accconst</t>
+  </si>
+  <si>
+    <t>/metadata/distinfo/distrib/storder/ordinst</t>
+  </si>
+  <si>
+    <t>/metadata/dataqual/lineage</t>
+  </si>
+  <si>
+    <t>/metadata/spref/horizsys/planar/gridsys/gridsysn</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/citation/citeinfo/lworkcit</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/useconst</t>
+  </si>
+  <si>
+    <t>/metadata/eainfo/detailed/attr/attrdef</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/secinfo</t>
+  </si>
+  <si>
+    <t>/metadata/lineage/dataqual/procstep</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/accconst /metadata/idinfo/useconst /metadata/metainfo/metac /metadata/metainfo/metuc</t>
+  </si>
+  <si>
+    <t>/metadata/dataqual</t>
+  </si>
+  <si>
+    <t>/metadata/dataqual/lineage/sinfo/type</t>
+  </si>
+  <si>
+    <t>/metadata/spref/horizsys/geograph</t>
+  </si>
+  <si>
+    <t>/metadata/distinfo/avalibl</t>
+  </si>
+  <si>
+    <t>/metadata/distinfo/stdorder/digform/onlinopt/networka</t>
+  </si>
+  <si>
+    <t>/metadata/distinfo/distrib/storder/fees</t>
+  </si>
+  <si>
+    <t>/metadata/metainfo/metuc</t>
+  </si>
+  <si>
+    <t>/metadata/eainfo/detailed/enttyp/enttypd</t>
+  </si>
+  <si>
+    <t>/metadata/distinfo/distliab</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/keyword/temporal/tempkey</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/browse/browsen</t>
+  </si>
+  <si>
+    <t>/metadata/dataqual/lineage/srcinfo/srccite</t>
+  </si>
+  <si>
+    <t>/metadata/distinfo/distrib/storder/turnaro</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/timeperd/timeinfo/rngdates/begdate | /metadata/idinfo/timeperd/timeinfo/rngdates/begtime</t>
+  </si>
+  <si>
+    <t>/metadata/idinfo/timeperd/timeinfo/rngdates/enddate | /metadata/idinfo/timeperd/timeinfo/rngdates/endtime</t>
+  </si>
+  <si>
+    <t>/mercury:metadata/mercury:metainfo/mercury:metd</t>
+  </si>
+  <si>
+    <t>/mercury:metadata/mercury:distinfo/mercury:stdorder/mercury:digform/mercury:digtopt/mercury:onlinopt/mercury:computer</t>
+  </si>
+  <si>
+    <t>/mercury:metadata/mercury:idinfo/mercury:timeperd/mercury:timeinfo/mercury:rngdates/mercury:begdate | /mercury:metadata/mercury:idinfo/mercury:timeperd/mercury:timeinfo/mercury:rngdates/mercury:begtime</t>
+  </si>
+  <si>
+    <t>/mercury:metadata/mercury:idinfo/mercury:timeperd/mercury:timeinfo/mercury:rngdates/mercury:enddate | /mercury:metadata/mercury:idinfo/mercury:timeperd/mercury:timeinfo/mercury:rngdates/mercury:endtime</t>
+  </si>
+  <si>
+    <t>/metadata/mercury/Temporal_Resolution</t>
+  </si>
+  <si>
+    <t>/mercury:metadata/mercury:mercury/Principal_Investigator/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1969,13 +2418,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2284,10 +2775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10963,59 +11454,219 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>622</v>
-      </c>
-      <c r="B378">
-        <v>0</v>
-      </c>
-      <c r="C378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>623</v>
-      </c>
-      <c r="B379">
-        <v>1</v>
-      </c>
-      <c r="C379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>624</v>
-      </c>
-      <c r="B380">
-        <v>0</v>
-      </c>
-      <c r="C380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>625</v>
-      </c>
-      <c r="B381">
-        <v>1</v>
-      </c>
-      <c r="C381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>626</v>
-      </c>
-      <c r="B382">
-        <v>1</v>
-      </c>
-      <c r="C382">
-        <v>1</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -11056,13 +11707,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D1" t="s">
         <v>245</v>
@@ -16258,402 +16909,6084 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="71" customWidth="1"/>
+    <col min="12" max="12" width="90.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(C2=0,"",A2)</f>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2=0,A2,"")</f>
+        <v>Resource Version</v>
+      </c>
+      <c r="J2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K2" t="s">
+        <v>732</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(L2&lt;&gt;0,J2,"")</f>
+        <v/>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">IF(C3=0,"",A3)</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">IF(C3=0,A3,"")</f>
+        <v>Resource Identifier Type</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M39" si="2">IF(L3&lt;&gt;0,J3,"")</f>
+        <v>Metadata Modified Date</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Metadata Access Constraints</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(D4,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:metainfo/csdgm:metac</v>
+      </c>
+      <c r="J4" t="s">
+        <v>498</v>
+      </c>
+      <c r="K4" t="s">
+        <v>734</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Metadata Modified Date</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(D5,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:metainfo/csdgm:metd</v>
+      </c>
+      <c r="J5" t="s">
+        <v>529</v>
+      </c>
+      <c r="K5" t="s">
+        <v>735</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Publication Date</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(D6,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:pubdate</v>
+      </c>
+      <c r="J6" t="s">
+        <v>504</v>
+      </c>
+      <c r="K6" t="s">
+        <v>736</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Format</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(D7,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:distinfo/csdgm:distributor/csdgm:distorFormat/csdgm:formatName /csdgm:metadata/csdgm:distinfo/csdgm:stdorder/csdgm:digform/csdgm:digtinfo/csdgm:formname</v>
+      </c>
+      <c r="J7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>737</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Topic Category</v>
+      </c>
+      <c r="F8" t="e">
+        <f>VLOOKUP(D8,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" t="s">
+        <v>738</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(A9,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Author / Originator Identifier</v>
+      </c>
+      <c r="F9" t="e">
+        <f>VLOOKUP(D9,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="s">
+        <v>419</v>
+      </c>
+      <c r="K9" t="s">
+        <v>739</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(A10,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Purpose</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(D10,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:idinfo/csdgm:descript/csdgm:purpose</v>
+      </c>
+      <c r="J10" t="s">
+        <v>522</v>
+      </c>
+      <c r="K10" t="s">
+        <v>740</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Publisher</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(D11,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:pubinfo/csdgm:publish</v>
+      </c>
+      <c r="J11" t="s">
+        <v>429</v>
+      </c>
+      <c r="K11" t="s">
+        <v>741</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(A12,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Resource Long Name</v>
+      </c>
+      <c r="F12" t="e">
+        <f>VLOOKUP(D12,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12" t="s">
+        <v>742</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(A13,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Naming Authority</v>
+      </c>
+      <c r="F13" t="e">
+        <f>VLOOKUP(D13,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="s">
+        <v>314</v>
+      </c>
+      <c r="K13" t="s">
+        <v>743</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(A14,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Author / Originator Identifier Type</v>
+      </c>
+      <c r="F14" t="e">
+        <f>VLOOKUP(D14,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="s">
+        <v>591</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(A15,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Contributor Name</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(D15,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:datacred</v>
+      </c>
+      <c r="J15" t="s">
+        <v>513</v>
+      </c>
+      <c r="K15" t="s">
+        <v>744</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(A16,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>Resource Language</v>
+      </c>
+      <c r="F16" t="e">
+        <f>VLOOKUP(D16,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="s">
+        <v>541</v>
+      </c>
+      <c r="K16" t="s">
+        <v>745</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(A17,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>Common Data Model Datatype</v>
+      </c>
+      <c r="F17" t="e">
+        <f>VLOOKUP(D17,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" t="s">
+        <v>746</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(A18,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Metadata Standard Version</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(D18,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v xml:space="preserve">/csdgm:metadata/csdgm:metainfo/csdgm:metstdv </v>
+      </c>
+      <c r="J18" t="s">
+        <v>533</v>
+      </c>
+      <c r="K18" t="s">
+        <v>742</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(A19,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Access Constraints</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(D19,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:accconst</v>
+      </c>
+      <c r="J19" t="s">
+        <v>551</v>
+      </c>
+      <c r="K19" t="s">
+        <v>747</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(A20,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ordering Instructions</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(D20,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:ordinst</v>
+      </c>
+      <c r="J20" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" t="s">
+        <v>738</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP(A21,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Lineage Statement</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(D21,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:dataqual/csdgm:lineage</v>
+      </c>
+      <c r="J21" t="s">
+        <v>478</v>
+      </c>
+      <c r="K21" t="s">
+        <v>748</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(A22,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Coordinate Reference System (CRS)</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(D22,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:spref/csdgm:horizsys/csdgm:planar/csdgm:gridsys/csdgm:gridsysn</v>
+      </c>
+      <c r="J22" t="s">
+        <v>549</v>
+      </c>
+      <c r="K22" t="s">
+        <v>749</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(A23,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>Complete Citation</v>
+      </c>
+      <c r="F23" t="e">
+        <f>VLOOKUP(D23,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J23" t="s">
+        <v>535</v>
+      </c>
+      <c r="K23" t="s">
+        <v>750</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>591</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(A24,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Supplemental Information</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(D24,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>408</v>
+      </c>
+      <c r="K24" t="s">
+        <v>751</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(A25,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>Parent Identifier</v>
+      </c>
+      <c r="F25" t="e">
+        <f>VLOOKUP(D25,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="s">
+        <v>585</v>
+      </c>
+      <c r="K25" t="s">
+        <v>752</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>617</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(A26,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>Vertical Extent</v>
+      </c>
+      <c r="F26" t="e">
+        <f>VLOOKUP(D26,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="s">
+        <v>331</v>
+      </c>
+      <c r="K26" t="s">
+        <v>753</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(A27,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>Paleo Temporal Coverage</v>
+      </c>
+      <c r="F27" t="e">
+        <f>VLOOKUP(D27,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="s">
+        <v>424</v>
+      </c>
+      <c r="K27" t="s">
+        <v>754</v>
+      </c>
+      <c r="L27" t="s">
+        <v>766</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>Online Resource</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(A28,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>Related Resource Identifier</v>
+      </c>
+      <c r="F28" t="e">
+        <f>VLOOKUP(D28,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="s">
+        <v>525</v>
+      </c>
+      <c r="K28" t="s">
+        <v>755</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>592</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(A29,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>Taxonomic Extent</v>
+      </c>
+      <c r="F29" t="e">
+        <f>VLOOKUP(D29,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="s">
+        <v>590</v>
+      </c>
+      <c r="K29" t="s">
+        <v>763</v>
+      </c>
+      <c r="L29" t="s">
+        <v>767</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>Start Time</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(A30,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>Standard Name Vocabulary</v>
+      </c>
+      <c r="F30" t="e">
+        <f>VLOOKUP(D30,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="s">
+        <v>420</v>
+      </c>
+      <c r="K30" t="s">
+        <v>756</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP(A31,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Related Resource Citation</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(D31,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:lworkcit</v>
+      </c>
+      <c r="J31" t="s">
+        <v>334</v>
+      </c>
+      <c r="K31" t="s">
+        <v>757</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP(A32,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Use Constraints</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(D32,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:useconst</v>
+      </c>
+      <c r="J32" t="s">
+        <v>327</v>
+      </c>
+      <c r="K32" t="s">
+        <v>758</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(A33,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>AssociatedDIFs</v>
+      </c>
+      <c r="F33" t="e">
+        <f>VLOOKUP(D33,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="s">
+        <v>594</v>
+      </c>
+      <c r="K33" t="s">
+        <v>759</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>619</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP(A34,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>Vertical Minimum</v>
+      </c>
+      <c r="F34" t="e">
+        <f>VLOOKUP(D34,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" t="s">
+        <v>760</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35">
+        <f>VLOOKUP(A35,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Attribute List</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(D35,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdef</v>
+      </c>
+      <c r="J35" t="s">
+        <v>572</v>
+      </c>
+      <c r="K35" t="s">
+        <v>761</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>533</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP(A36,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Lineage</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(D36,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:dataqual/csdgm:lineage</v>
+      </c>
+      <c r="J36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K36" t="s">
+        <v>750</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>485</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP(A37,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>Processing Level</v>
+      </c>
+      <c r="F37" t="e">
+        <f>VLOOKUP(D37,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>764</v>
+      </c>
+      <c r="L37" t="s">
+        <v>768</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>End Time</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>551</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(A38,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Security Constraints</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(D38,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:secinfo</v>
+      </c>
+      <c r="J38" t="s">
+        <v>603</v>
+      </c>
+      <c r="K38" t="s">
+        <v>762</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP(A39,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>Attribute Constraints</v>
+      </c>
+      <c r="F39" t="e">
+        <f>VLOOKUP(D39,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>746</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>462</v>
+      </c>
+      <c r="C40">
+        <f>VLOOKUP(A40,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>Platform Keyword</v>
+      </c>
+      <c r="F40" t="e">
+        <f>VLOOKUP(D40,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP(A41,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Acknowledgement</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(D41,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:datacred</v>
+      </c>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP(A42,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Process Step</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(D42,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:lineage/csdgm:dataqual/csdgm:procstep</v>
+      </c>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>549</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP(A43,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Rights</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(D43,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:accconst /csdgm:metadata/csdgm:idinfo/csdgm:useconst /csdgm:metadata/csdgm:metainfo/csdgm:metac /csdgm:metadata/csdgm:metainfo/csdgm:metuc</v>
+      </c>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>535</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP(A44,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Quality Description</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(D44,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:dataqual</v>
+      </c>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP(A45,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>Association</v>
+      </c>
+      <c r="F45" t="e">
+        <f>VLOOKUP(D45,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46">
+        <f>VLOOKUP(A46,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Media</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(D46,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:sinfo/csdgm:type</v>
+      </c>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>618</v>
+      </c>
+      <c r="C47">
+        <f>VLOOKUP(A47,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>Vertical Maximum</v>
+      </c>
+      <c r="F47" t="e">
+        <f>VLOOKUP(D47,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>585</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP(A48,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Spatial Resolution</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(D48,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:spref/csdgm:horizsys/csdgm:geograph</v>
+      </c>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>381</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP(A49,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>Instrument Type</v>
+      </c>
+      <c r="F49" t="e">
+        <f>VLOOKUP(D49,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>491</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP(A50,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>Project Description</v>
+      </c>
+      <c r="F50" t="e">
+        <f>VLOOKUP(D50,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP(A51,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Embargo Date</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(D51,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:distinfo/csdgm:avalibl</v>
+      </c>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP(A52,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>Contributor Role</v>
+      </c>
+      <c r="F52" t="e">
+        <f>VLOOKUP(D52,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP(A53,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Online Resource</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(D53,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:distinfo/csdgm:stdorder/csdgm:digform/csdgm:onlinopt/csdgm:networka</v>
+      </c>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>525</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP(A54,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Resource Cost or Fees</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(D54,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:fees</v>
+      </c>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>590</v>
+      </c>
+      <c r="C55">
+        <f>VLOOKUP(A55,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Start Time</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(D55,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:begdate | /csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:begtime</v>
+      </c>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>420</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(A56,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Metadata Use Constraints</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(D56,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:metainfo/csdgm:metuc</v>
+      </c>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>597</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP(A57,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>Temporal Resolution</v>
+      </c>
+      <c r="F57" t="e">
+        <f>VLOOKUP(D57,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="R57" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>552</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP(A58,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>Sensor Characteristics</v>
+      </c>
+      <c r="F58" t="e">
+        <f>VLOOKUP(D58,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP(A59,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>Entity Type Definition</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP(D59,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:enttyp/csdgm:enttypd</v>
+      </c>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>453</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP(A60,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>Platform</v>
+      </c>
+      <c r="F60" t="e">
+        <f>VLOOKUP(D60,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>327</v>
+      </c>
+      <c r="C61">
+        <f>VLOOKUP(A61,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>Distribution Liability</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP(D61,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:distinfo/csdgm:distliab</v>
+      </c>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>594</v>
+      </c>
+      <c r="C62">
+        <f>VLOOKUP(A62,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>Temporal Keyword</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <f>VLOOKUP(D62,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:keyword/csdgm:temporal/csdgm:tempkey</v>
+      </c>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP(A63,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>Author / Originator Email Address</v>
+      </c>
+      <c r="F63" t="e">
+        <f>VLOOKUP(D63,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="R63" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP(A64,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>Responsible Party Identifier Type</v>
+      </c>
+      <c r="F64" t="e">
+        <f>VLOOKUP(D64,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65">
+        <f>VLOOKUP(A65,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>Browse File Name</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <f>VLOOKUP(D65,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:browse/csdgm:browsen</v>
+      </c>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>572</v>
+      </c>
+      <c r="C66">
+        <f>VLOOKUP(A66,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>Source Citation</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <f>VLOOKUP(D66,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:srcinfo/csdgm:srccite</v>
+      </c>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>505</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP(A67,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D78" si="3">IF(C67=0,"",A67)</f>
+        <v>Quality Statement</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E78" si="4">IF(C67=0,A67,"")</f>
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <f>VLOOKUP(D67,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:dataqual</v>
+      </c>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>604</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP(A68,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>TwoDCoordinateSystem</v>
+      </c>
+      <c r="F68" t="e">
+        <f>VLOOKUP(D68,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>501</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(A69,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>Publisher E-Mail</v>
+      </c>
+      <c r="F69" t="e">
+        <f>VLOOKUP(D69,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>367</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(A70,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>Instrument</v>
+      </c>
+      <c r="F70" t="e">
+        <f>VLOOKUP(D70,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP(A71,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="4"/>
+        <v>Author / Originator World Wide Web Address</v>
+      </c>
+      <c r="F71" t="e">
+        <f>VLOOKUP(D71,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>536</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP(A72,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>Resource Revision Date</v>
+      </c>
+      <c r="F72" t="e">
+        <f>VLOOKUP(D72,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP(A73,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="4"/>
+        <v>Additional Attributes</v>
+      </c>
+      <c r="F73" t="e">
+        <f>VLOOKUP(D73,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74">
+        <f>VLOOKUP(A74,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>End Time</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F74" t="str">
+        <f>VLOOKUP(D74,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:enddate | /csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:endtime</v>
+      </c>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>603</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP(A75,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>Turnaround</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <f>VLOOKUP(D75,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:turnaro</v>
+      </c>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76">
+        <f>VLOOKUP(A76,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>Attribute Definition</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F76" t="str">
+        <f>VLOOKUP(D76,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdef</v>
+      </c>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>503</v>
+      </c>
+      <c r="C77">
+        <f>VLOOKUP(A77,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="4"/>
+        <v>Publisher URL</v>
+      </c>
+      <c r="F77" t="e">
+        <f>VLOOKUP(D77,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>545</v>
+      </c>
+      <c r="C78">
+        <f>VLOOKUP(A78,dialectContains!$A$1:$E$377,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="4"/>
+        <v>Responsible Party Identifier</v>
+      </c>
+      <c r="F78" t="e">
+        <f>VLOOKUP(D78,csdgm2mercury!$A$1:$B$377,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="C1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>627</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>627</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>627</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>627</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>627</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>627</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C28" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>541</v>
+      </c>
+      <c r="C29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>627</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>627</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>533</v>
+      </c>
+      <c r="C33" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>627</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>551</v>
+      </c>
+      <c r="C35" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>627</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>627</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>478</v>
+      </c>
+      <c r="C39" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>549</v>
+      </c>
+      <c r="C40" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>535</v>
+      </c>
+      <c r="C41" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>627</v>
+      </c>
+      <c r="C42" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>627</v>
+      </c>
+      <c r="C44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>585</v>
+      </c>
+      <c r="C45" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>627</v>
+      </c>
+      <c r="C46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>627</v>
+      </c>
+      <c r="C47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>627</v>
+      </c>
+      <c r="C49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>424</v>
+      </c>
+      <c r="C50" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>525</v>
+      </c>
+      <c r="C51" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>590</v>
+      </c>
+      <c r="C52" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C53" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>627</v>
+      </c>
+      <c r="C55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>334</v>
+      </c>
+      <c r="C56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>627</v>
+      </c>
+      <c r="C57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>327</v>
+      </c>
+      <c r="C58" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>594</v>
+      </c>
+      <c r="C59" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>627</v>
+      </c>
+      <c r="C60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>627</v>
+      </c>
+      <c r="C61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>572</v>
+      </c>
+      <c r="C63" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>505</v>
+      </c>
+      <c r="C64" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>627</v>
+      </c>
+      <c r="C65" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>627</v>
+      </c>
+      <c r="C66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>627</v>
+      </c>
+      <c r="C67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>627</v>
+      </c>
+      <c r="C68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>627</v>
+      </c>
+      <c r="C69" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>603</v>
+      </c>
+      <c r="C72" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>627</v>
+      </c>
+      <c r="C74" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>627</v>
+      </c>
+      <c r="C75" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C75">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="/csdgm:idinfo/csdgm:descript/csdgm:purpose"/>
+        <filter val="/csdgm:metadata/csdgm:dataqual"/>
+        <filter val="/csdgm:metadata/csdgm:dataqual/csdgm:lineage"/>
+        <filter val="/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:sinfo/csdgm:type"/>
+        <filter val="/csdgm:metadata/csdgm:dataqual/csdgm:lineage/csdgm:srcinfo/csdgm:srccite"/>
+        <filter val="/csdgm:metadata/csdgm:distinfo/csdgm:avalibl"/>
+        <filter val="/csdgm:metadata/csdgm:distinfo/csdgm:distliab"/>
+        <filter val="/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:fees"/>
+        <filter val="/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:ordinst"/>
+        <filter val="/csdgm:metadata/csdgm:distinfo/csdgm:distrib/csdgm:storder/csdgm:turnaro"/>
+        <filter val="/csdgm:metadata/csdgm:distinfo/csdgm:distributor/csdgm:distorFormat/csdgm:formatName /csdgm:metadata/csdgm:distinfo/csdgm:stdorder/csdgm:digform/csdgm:digtinfo/csdgm:formname"/>
+        <filter val="/csdgm:metadata/csdgm:distinfo/csdgm:stdorder/csdgm:digform/csdgm:onlinopt/csdgm:networka"/>
+        <filter val="/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:attr/csdgm:attrdef"/>
+        <filter val="/csdgm:metadata/csdgm:eainfo/csdgm:detailed/csdgm:enttyp/csdgm:enttypd"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:accconst"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:accconst /csdgm:metadata/csdgm:idinfo/csdgm:useconst /csdgm:metadata/csdgm:metainfo/csdgm:metac /csdgm:metadata/csdgm:metainfo/csdgm:metuc"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:browse/csdgm:browsen"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:lworkcit"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:pubdate"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:citation/csdgm:citeinfo/csdgm:pubinfo/csdgm:publish"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:datacred"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:keyword/csdgm:temporal/csdgm:tempkey"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:secinfo"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:begdate | /csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:begtime"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:enddate | /csdgm:metadata/csdgm:idinfo/csdgm:timeperd/csdgm:endtime"/>
+        <filter val="/csdgm:metadata/csdgm:idinfo/csdgm:useconst"/>
+        <filter val="/csdgm:metadata/csdgm:lineage/csdgm:dataqual/csdgm:procstep"/>
+        <filter val="/csdgm:metadata/csdgm:metainfo/csdgm:metd"/>
+        <filter val="/csdgm:metadata/csdgm:metainfo/csdgm:metstdv"/>
+        <filter val="/csdgm:metadata/csdgm:metainfo/csdgm:metuc"/>
+        <filter val="/csdgm:metadata/csdgm:spref/csdgm:horizsys/csdgm:geograph"/>
+        <filter val="/csdgm:metadata/csdgm:spref/csdgm:horizsys/csdgm:planar/csdgm:gridsys/csdgm:gridsysn"/>
+        <filter val="/csdgm:metadata/csdgm:taxoncl/csdgm:taxonrv[../csdgm:taxonrn='Class']"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B377"/>
+  <sheetViews>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="B342" sqref="B342"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>306</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>307</v>
+      </c>
+      <c r="B58" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>341</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>343</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>345</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>350</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>351</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>356</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>358</v>
+      </c>
+      <c r="B109" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>359</v>
+      </c>
+      <c r="B110" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>360</v>
+      </c>
+      <c r="B111" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>361</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>363</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>364</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>365</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>366</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>367</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>369</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>372</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>373</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>374</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>378</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>380</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>383</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>385</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>386</v>
+      </c>
+      <c r="B137" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>389</v>
+      </c>
+      <c r="B140" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>391</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>392</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>393</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>394</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>395</v>
+      </c>
+      <c r="B146" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>396</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>397</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>398</v>
+      </c>
+      <c r="B149" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>399</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>402</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>404</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>405</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>406</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>407</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>408</v>
+      </c>
+      <c r="B159" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>409</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>410</v>
+      </c>
+      <c r="B161" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>411</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>412</v>
+      </c>
+      <c r="B163" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>413</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>414</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>415</v>
+      </c>
+      <c r="B166" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>416</v>
+      </c>
+      <c r="B167" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>417</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>419</v>
+      </c>
+      <c r="B170" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>420</v>
+      </c>
+      <c r="B171" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>421</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>422</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>423</v>
+      </c>
+      <c r="B174" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>424</v>
+      </c>
+      <c r="B175" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>425</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>426</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>427</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>428</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>429</v>
+      </c>
+      <c r="B180" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>430</v>
+      </c>
+      <c r="B181" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>431</v>
+      </c>
+      <c r="B182" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>432</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>433</v>
+      </c>
+      <c r="B184" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>434</v>
+      </c>
+      <c r="B185" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>435</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>436</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>437</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>438</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>439</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>440</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>441</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>442</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>443</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>444</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>445</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>446</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>447</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>448</v>
+      </c>
+      <c r="B199" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>449</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>450</v>
+      </c>
+      <c r="B201" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>451</v>
+      </c>
+      <c r="B202" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>452</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>453</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>454</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>455</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>456</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>458</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>459</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>460</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>461</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>462</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>463</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>464</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>465</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>466</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>467</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>468</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>469</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>470</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>472</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>473</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>474</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>475</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>476</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>477</v>
+      </c>
+      <c r="B228" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>478</v>
+      </c>
+      <c r="B229" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>479</v>
+      </c>
+      <c r="B230" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>480</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>481</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>482</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>483</v>
+      </c>
+      <c r="B234" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>484</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>485</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>486</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>487</v>
+      </c>
+      <c r="B238" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>488</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>489</v>
+      </c>
+      <c r="B240" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>490</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>491</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>492</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>493</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>494</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>495</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>496</v>
+      </c>
+      <c r="B247" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>497</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>498</v>
+      </c>
+      <c r="B249" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>499</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>501</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>504</v>
+      </c>
+      <c r="B255" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>505</v>
+      </c>
+      <c r="B256" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>506</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>507</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>508</v>
+      </c>
+      <c r="B259" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>509</v>
+      </c>
+      <c r="B260" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>510</v>
+      </c>
+      <c r="B261" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>511</v>
+      </c>
+      <c r="B262" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>512</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>513</v>
+      </c>
+      <c r="B264" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>514</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>515</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>516</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>517</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>518</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>519</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>520</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>521</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>522</v>
+      </c>
+      <c r="B273" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>523</v>
+      </c>
+      <c r="B274" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>524</v>
+      </c>
+      <c r="B275" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>525</v>
+      </c>
+      <c r="B276" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>526</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>527</v>
+      </c>
+      <c r="B278" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>528</v>
+      </c>
+      <c r="B279" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>529</v>
+      </c>
+      <c r="B280" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>530</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>531</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>532</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>533</v>
+      </c>
+      <c r="B284" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>534</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>535</v>
+      </c>
+      <c r="B286" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>536</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>537</v>
+      </c>
+      <c r="B288" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>538</v>
+      </c>
+      <c r="B289" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>539</v>
+      </c>
+      <c r="B290" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>540</v>
+      </c>
+      <c r="B291" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>541</v>
+      </c>
+      <c r="B292" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>543</v>
+      </c>
+      <c r="B294" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>544</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>545</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>546</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>547</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>548</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>549</v>
+      </c>
+      <c r="B300" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>550</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>551</v>
+      </c>
+      <c r="B302" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>552</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>553</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>554</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>555</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>556</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>557</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>558</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>559</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>560</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>561</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>562</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>563</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>564</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>565</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>566</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>567</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>568</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>569</v>
+      </c>
+      <c r="B320" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>570</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>571</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>572</v>
+      </c>
+      <c r="B323" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>573</v>
+      </c>
+      <c r="B324" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>574</v>
+      </c>
+      <c r="B325" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>575</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>576</v>
+      </c>
+      <c r="B327" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>577</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>578</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>579</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>580</v>
+      </c>
+      <c r="B331" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>581</v>
+      </c>
+      <c r="B332" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>582</v>
+      </c>
+      <c r="B333" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>583</v>
+      </c>
+      <c r="B334" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>584</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>585</v>
+      </c>
+      <c r="B336" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>586</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>587</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>588</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>589</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>590</v>
+      </c>
+      <c r="B341" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>591</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>592</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>593</v>
+      </c>
+      <c r="B344" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>594</v>
+      </c>
+      <c r="B345" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>595</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>596</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>597</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>598</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>599</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>600</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>602</v>
+      </c>
+      <c r="B353" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>603</v>
+      </c>
+      <c r="B354" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>604</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>605</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>606</v>
+      </c>
+      <c r="B357" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>607</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>608</v>
+      </c>
+      <c r="B359" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>609</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>610</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>611</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>612</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>613</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>614</v>
+      </c>
+      <c r="B365" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>615</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>616</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>618</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>545</v>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>620</v>
+      </c>
+      <c r="B371" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>621</v>
+      </c>
+      <c r="B372" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>622</v>
+      </c>
+      <c r="B373" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>623</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>624</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>625</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>626</v>
+      </c>
+      <c r="B377" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -16661,7 +22994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A92"/>
   <sheetViews>
@@ -17136,11 +23469,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17620,7 +23953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
@@ -17775,7 +24108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A43"/>
   <sheetViews>
@@ -18003,219 +24336,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>545</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DISC/DialectImprovementSprintCoordinator.xlsx
+++ b/DISC/DialectImprovementSprintCoordinator.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14120" windowHeight="24000" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dialectContains" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="1" r:id="rId2"/>
     <sheet name="mercuryHitList" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId4"/>
-    <sheet name="csdgm2mercury" sheetId="9" r:id="rId5"/>
+    <sheet name="csdgm2mercury" sheetId="9" r:id="rId4"/>
+    <sheet name="possibleMercuryPaths" sheetId="10" r:id="rId5"/>
     <sheet name="onedcxHitList" sheetId="7" r:id="rId6"/>
     <sheet name="dryadHitList" sheetId="8" r:id="rId7"/>
     <sheet name="emlHitList" sheetId="4" r:id="rId8"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Analysis!$A$1:$I$245</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dryadHitList!$A$1:$A$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet10!$A$1:$C$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">possibleMercuryPaths!$A$1:$C$75</definedName>
     <definedName name="Column1">[1]recordUnq!#REF!</definedName>
     <definedName name="Concept">#REF!</definedName>
     <definedName name="Dialects">#REF!</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="772">
   <si>
     <t>Keyword|CSWCoreQueryables</t>
   </si>
@@ -2363,6 +2363,9 @@
   </si>
   <si>
     <t>/mercury:metadata/mercury:mercury/Principal_Investigator/</t>
+  </si>
+  <si>
+    <t>Also missing in Dryad</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G377"/>
   <sheetViews>
-    <sheetView topLeftCell="A270" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
@@ -11678,7 +11681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -16911,7 +16914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
       <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
@@ -19309,6 +19312,3037 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B377"/>
+  <sheetViews>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="B342" sqref="B342"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>306</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>307</v>
+      </c>
+      <c r="B58" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>341</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>343</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>345</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>350</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>351</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>356</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>357</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>358</v>
+      </c>
+      <c r="B109" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>359</v>
+      </c>
+      <c r="B110" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>360</v>
+      </c>
+      <c r="B111" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>361</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>363</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>364</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>365</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>366</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>367</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>369</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>372</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>373</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>374</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>378</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>380</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>383</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>385</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>386</v>
+      </c>
+      <c r="B137" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>389</v>
+      </c>
+      <c r="B140" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>391</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>392</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>393</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>394</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>395</v>
+      </c>
+      <c r="B146" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>396</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>397</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>398</v>
+      </c>
+      <c r="B149" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>399</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>402</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>404</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>405</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>406</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>407</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>408</v>
+      </c>
+      <c r="B159" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>409</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>410</v>
+      </c>
+      <c r="B161" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>411</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>412</v>
+      </c>
+      <c r="B163" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>413</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>414</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>415</v>
+      </c>
+      <c r="B166" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>416</v>
+      </c>
+      <c r="B167" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>417</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>419</v>
+      </c>
+      <c r="B170" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>420</v>
+      </c>
+      <c r="B171" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>421</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>422</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>423</v>
+      </c>
+      <c r="B174" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>424</v>
+      </c>
+      <c r="B175" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>425</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>426</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>427</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>428</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>429</v>
+      </c>
+      <c r="B180" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>430</v>
+      </c>
+      <c r="B181" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>431</v>
+      </c>
+      <c r="B182" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>432</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>433</v>
+      </c>
+      <c r="B184" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>434</v>
+      </c>
+      <c r="B185" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>435</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>436</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>437</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>438</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>439</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>440</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>441</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>442</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>443</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>444</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>445</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>446</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>447</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>448</v>
+      </c>
+      <c r="B199" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>449</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>450</v>
+      </c>
+      <c r="B201" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>451</v>
+      </c>
+      <c r="B202" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>452</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>453</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>454</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>455</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>456</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>458</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>459</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>460</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>461</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>462</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>463</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>464</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>465</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>466</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>467</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>468</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>469</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>470</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>472</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>473</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>474</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>475</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>476</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>477</v>
+      </c>
+      <c r="B228" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>478</v>
+      </c>
+      <c r="B229" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>479</v>
+      </c>
+      <c r="B230" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>480</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>481</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>482</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>483</v>
+      </c>
+      <c r="B234" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>484</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>485</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>486</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>487</v>
+      </c>
+      <c r="B238" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>488</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>489</v>
+      </c>
+      <c r="B240" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>490</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>491</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>492</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>493</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>494</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>495</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>496</v>
+      </c>
+      <c r="B247" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>497</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>498</v>
+      </c>
+      <c r="B249" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>499</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>501</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>504</v>
+      </c>
+      <c r="B255" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>505</v>
+      </c>
+      <c r="B256" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>506</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>507</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>508</v>
+      </c>
+      <c r="B259" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>509</v>
+      </c>
+      <c r="B260" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>510</v>
+      </c>
+      <c r="B261" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>511</v>
+      </c>
+      <c r="B262" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>512</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>513</v>
+      </c>
+      <c r="B264" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>514</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>515</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>516</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>517</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>518</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>519</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>520</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>521</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>522</v>
+      </c>
+      <c r="B273" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>523</v>
+      </c>
+      <c r="B274" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>524</v>
+      </c>
+      <c r="B275" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>525</v>
+      </c>
+      <c r="B276" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>526</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>527</v>
+      </c>
+      <c r="B278" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>528</v>
+      </c>
+      <c r="B279" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>529</v>
+      </c>
+      <c r="B280" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>530</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>531</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>532</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>533</v>
+      </c>
+      <c r="B284" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>534</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>535</v>
+      </c>
+      <c r="B286" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>536</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>537</v>
+      </c>
+      <c r="B288" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>538</v>
+      </c>
+      <c r="B289" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>539</v>
+      </c>
+      <c r="B290" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>540</v>
+      </c>
+      <c r="B291" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>541</v>
+      </c>
+      <c r="B292" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>542</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>543</v>
+      </c>
+      <c r="B294" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>544</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>545</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>546</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>547</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>548</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>549</v>
+      </c>
+      <c r="B300" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>550</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>551</v>
+      </c>
+      <c r="B302" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>552</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>553</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>554</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>555</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>556</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>557</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>558</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>559</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>560</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>561</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>562</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>563</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>564</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>565</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>566</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>567</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>568</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>569</v>
+      </c>
+      <c r="B320" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>570</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>571</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>572</v>
+      </c>
+      <c r="B323" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>573</v>
+      </c>
+      <c r="B324" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>574</v>
+      </c>
+      <c r="B325" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>575</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>576</v>
+      </c>
+      <c r="B327" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>577</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>578</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>579</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>580</v>
+      </c>
+      <c r="B331" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>581</v>
+      </c>
+      <c r="B332" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>582</v>
+      </c>
+      <c r="B333" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>583</v>
+      </c>
+      <c r="B334" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>584</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>585</v>
+      </c>
+      <c r="B336" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>586</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>587</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>588</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>589</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>590</v>
+      </c>
+      <c r="B341" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>591</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>592</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>593</v>
+      </c>
+      <c r="B344" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>594</v>
+      </c>
+      <c r="B345" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>595</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>596</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>597</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>598</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>599</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>600</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>601</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>602</v>
+      </c>
+      <c r="B353" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>603</v>
+      </c>
+      <c r="B354" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>604</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>605</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>606</v>
+      </c>
+      <c r="B357" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>607</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>608</v>
+      </c>
+      <c r="B359" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>609</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>610</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>611</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>612</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>613</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>614</v>
+      </c>
+      <c r="B365" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>615</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>616</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>617</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>618</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>619</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>620</v>
+      </c>
+      <c r="B371" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>621</v>
+      </c>
+      <c r="B372" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>622</v>
+      </c>
+      <c r="B373" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>623</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>624</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>625</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>626</v>
+      </c>
+      <c r="B377" t="s">
+        <v>632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C75"/>
@@ -19963,3505 +22997,841 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B377"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B24" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>275</v>
-      </c>
-      <c r="B26" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B27" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B28" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>280</v>
-      </c>
-      <c r="B31" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>281</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>282</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>283</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>284</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>285</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>287</v>
-      </c>
-      <c r="B38" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>288</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>289</v>
-      </c>
-      <c r="B40" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>290</v>
-      </c>
-      <c r="B41" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>291</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>292</v>
-      </c>
-      <c r="B43" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>293</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>294</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>295</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>298</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>299</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>302</v>
-      </c>
-      <c r="B53" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>303</v>
-      </c>
-      <c r="B54" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>304</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>305</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>306</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>307</v>
-      </c>
-      <c r="B58" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>308</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>309</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>310</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>311</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>312</v>
-      </c>
-      <c r="B63" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>313</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>314</v>
-      </c>
-      <c r="B65" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>315</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>316</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>317</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>318</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>319</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>320</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>321</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>322</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>323</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>324</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>325</v>
-      </c>
-      <c r="B76" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>326</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>327</v>
-      </c>
-      <c r="B78" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>328</v>
-      </c>
-      <c r="B79" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>329</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>330</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>331</v>
-      </c>
-      <c r="B82" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>333</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>334</v>
-      </c>
-      <c r="B85" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>335</v>
-      </c>
-      <c r="B86" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>336</v>
-      </c>
-      <c r="B87" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>337</v>
-      </c>
-      <c r="B88" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>338</v>
-      </c>
-      <c r="B89" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>339</v>
-      </c>
-      <c r="B90" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>340</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>341</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>342</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>343</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>344</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>345</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>346</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>347</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>348</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>349</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>350</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>351</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>352</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>353</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>354</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>355</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>356</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>357</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>358</v>
-      </c>
-      <c r="B109" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>359</v>
-      </c>
-      <c r="B110" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>360</v>
-      </c>
-      <c r="B111" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>361</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>362</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>363</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>364</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>365</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>366</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>367</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>368</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>369</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>370</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>371</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>372</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>373</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>374</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>375</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>376</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>377</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>378</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>379</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>380</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>381</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>382</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>383</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>384</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>385</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>386</v>
-      </c>
-      <c r="B137" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>387</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>388</v>
-      </c>
-      <c r="B139" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>389</v>
-      </c>
-      <c r="B140" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>390</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>391</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>392</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>393</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>394</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>395</v>
-      </c>
-      <c r="B146" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>396</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>397</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>398</v>
-      </c>
-      <c r="B149" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>399</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>400</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>401</v>
-      </c>
-      <c r="B152" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>402</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>403</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>404</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>405</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>406</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>407</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>408</v>
-      </c>
-      <c r="B159" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>409</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>410</v>
-      </c>
-      <c r="B161" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>411</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>412</v>
-      </c>
-      <c r="B163" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>413</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>414</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>415</v>
-      </c>
-      <c r="B166" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>416</v>
-      </c>
-      <c r="B167" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>417</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>418</v>
-      </c>
-      <c r="B169" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>419</v>
-      </c>
-      <c r="B170" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>420</v>
-      </c>
-      <c r="B171" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>421</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>422</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>423</v>
-      </c>
-      <c r="B174" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>424</v>
-      </c>
-      <c r="B175" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>425</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>426</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>427</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>428</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>429</v>
-      </c>
-      <c r="B180" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>430</v>
-      </c>
-      <c r="B181" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>431</v>
-      </c>
-      <c r="B182" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>432</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>433</v>
-      </c>
-      <c r="B184" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>434</v>
-      </c>
-      <c r="B185" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>435</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>436</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>437</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>438</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>439</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>440</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>441</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>442</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>443</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>444</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>445</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>446</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>447</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>448</v>
-      </c>
-      <c r="B199" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>449</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>450</v>
-      </c>
-      <c r="B201" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>451</v>
-      </c>
-      <c r="B202" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>452</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>453</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>454</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>455</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>456</v>
-      </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>457</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>458</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>459</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>460</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>461</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>462</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>463</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>464</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>465</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>466</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>467</v>
-      </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>468</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>469</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>470</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>471</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>472</v>
-      </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>473</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>474</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>475</v>
-      </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>476</v>
-      </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>477</v>
-      </c>
-      <c r="B228" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>478</v>
-      </c>
-      <c r="B229" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>479</v>
-      </c>
-      <c r="B230" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>480</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>481</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>482</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>483</v>
-      </c>
-      <c r="B234" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>484</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>485</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>486</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>487</v>
-      </c>
-      <c r="B238" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>488</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>489</v>
-      </c>
-      <c r="B240" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>490</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>491</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>492</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>493</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>494</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>495</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>496</v>
-      </c>
-      <c r="B247" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>497</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>498</v>
-      </c>
-      <c r="B249" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>499</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>500</v>
-      </c>
-      <c r="B251" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>501</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>502</v>
-      </c>
-      <c r="B253" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>503</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>504</v>
-      </c>
-      <c r="B255" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>505</v>
-      </c>
-      <c r="B256" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>506</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>507</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>508</v>
-      </c>
-      <c r="B259" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>509</v>
-      </c>
-      <c r="B260" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>510</v>
-      </c>
-      <c r="B261" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>511</v>
-      </c>
-      <c r="B262" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>512</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>513</v>
-      </c>
-      <c r="B264" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>514</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>515</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>516</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>517</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>518</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>519</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>520</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>521</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>522</v>
-      </c>
-      <c r="B273" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>523</v>
-      </c>
-      <c r="B274" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>524</v>
-      </c>
-      <c r="B275" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>525</v>
-      </c>
-      <c r="B276" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>526</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>527</v>
-      </c>
-      <c r="B278" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>528</v>
-      </c>
-      <c r="B279" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>529</v>
-      </c>
-      <c r="B280" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>530</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>531</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>532</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>533</v>
-      </c>
-      <c r="B284" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>534</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>535</v>
-      </c>
-      <c r="B286" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>536</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>537</v>
-      </c>
-      <c r="B288" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>538</v>
-      </c>
-      <c r="B289" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>539</v>
-      </c>
-      <c r="B290" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>540</v>
-      </c>
-      <c r="B291" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>541</v>
-      </c>
-      <c r="B292" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>542</v>
-      </c>
-      <c r="B293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>543</v>
-      </c>
-      <c r="B294" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>544</v>
-      </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>545</v>
-      </c>
-      <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>546</v>
-      </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>547</v>
-      </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>548</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>549</v>
-      </c>
-      <c r="B300" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>550</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>551</v>
-      </c>
-      <c r="B302" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>552</v>
-      </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>553</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>554</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>555</v>
-      </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>556</v>
-      </c>
-      <c r="B307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>557</v>
-      </c>
-      <c r="B308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>558</v>
-      </c>
-      <c r="B309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>559</v>
-      </c>
-      <c r="B310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>560</v>
-      </c>
-      <c r="B311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>561</v>
-      </c>
-      <c r="B312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>562</v>
-      </c>
-      <c r="B313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>563</v>
-      </c>
-      <c r="B314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>564</v>
-      </c>
-      <c r="B315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>565</v>
-      </c>
-      <c r="B316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>566</v>
-      </c>
-      <c r="B317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>567</v>
-      </c>
-      <c r="B318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>568</v>
-      </c>
-      <c r="B319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>569</v>
-      </c>
-      <c r="B320" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>570</v>
-      </c>
-      <c r="B321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>571</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>572</v>
-      </c>
-      <c r="B323" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>573</v>
-      </c>
-      <c r="B324" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>574</v>
-      </c>
-      <c r="B325" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>575</v>
-      </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>576</v>
-      </c>
-      <c r="B327" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>577</v>
-      </c>
-      <c r="B328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>578</v>
-      </c>
-      <c r="B329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>579</v>
-      </c>
-      <c r="B330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>580</v>
-      </c>
-      <c r="B331" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>581</v>
-      </c>
-      <c r="B332" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>582</v>
-      </c>
-      <c r="B333" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>583</v>
-      </c>
-      <c r="B334" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>584</v>
-      </c>
-      <c r="B335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>585</v>
-      </c>
-      <c r="B336" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>586</v>
-      </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>587</v>
-      </c>
-      <c r="B338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>588</v>
-      </c>
-      <c r="B339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>589</v>
-      </c>
-      <c r="B340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>590</v>
-      </c>
-      <c r="B341" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>591</v>
-      </c>
-      <c r="B342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>592</v>
-      </c>
-      <c r="B343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>593</v>
-      </c>
-      <c r="B344" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>594</v>
-      </c>
-      <c r="B345" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>595</v>
-      </c>
-      <c r="B346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>596</v>
-      </c>
-      <c r="B347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>597</v>
-      </c>
-      <c r="B348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>598</v>
-      </c>
-      <c r="B349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>599</v>
-      </c>
-      <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>600</v>
-      </c>
-      <c r="B351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>601</v>
-      </c>
-      <c r="B352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>602</v>
-      </c>
-      <c r="B353" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>603</v>
-      </c>
-      <c r="B354" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>604</v>
-      </c>
-      <c r="B355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>605</v>
-      </c>
-      <c r="B356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>606</v>
-      </c>
-      <c r="B357" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>607</v>
-      </c>
-      <c r="B358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>608</v>
-      </c>
-      <c r="B359" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>609</v>
-      </c>
-      <c r="B360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>610</v>
-      </c>
-      <c r="B361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>611</v>
-      </c>
-      <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>612</v>
-      </c>
-      <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>613</v>
-      </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>614</v>
-      </c>
-      <c r="B365" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>615</v>
-      </c>
-      <c r="B366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>616</v>
-      </c>
-      <c r="B367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>617</v>
-      </c>
-      <c r="B368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>618</v>
-      </c>
-      <c r="B369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>619</v>
-      </c>
-      <c r="B370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>620</v>
-      </c>
-      <c r="B371" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>621</v>
-      </c>
-      <c r="B372" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>622</v>
-      </c>
-      <c r="B373" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>623</v>
-      </c>
-      <c r="B374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>624</v>
-      </c>
-      <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>625</v>
-      </c>
-      <c r="B376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>626</v>
-      </c>
-      <c r="B377" t="s">
-        <v>632</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A92"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D2" t="str">
+        <f>VLOOKUP(A2,dryadHitList!A2:A93,1,0)</f>
+        <v>Metadata Identifier</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D3" t="str">
+        <f>VLOOKUP(A3,dryadHitList!A3:A94,1,0)</f>
+        <v>Originating Organization</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D4" t="str">
+        <f>VLOOKUP(A4,dryadHitList!A4:A95,1,0)</f>
+        <v>Resource Version</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D5" t="e">
+        <f>VLOOKUP(A5,dryadHitList!A5:A96,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D6" t="str">
+        <f>VLOOKUP(A6,dryadHitList!A6:A97,1,0)</f>
+        <v>Metadata Modified Date</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f>VLOOKUP(A7,dryadHitList!A7:A98,1,0)</f>
+        <v>Metadata Contact</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f>VLOOKUP(A8,dryadHitList!A8:A99,1,0)</f>
+        <v>Topic Category</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f>VLOOKUP(A9,dryadHitList!A9:A100,1,0)</f>
+        <v>Author / Originator Identifier</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f>VLOOKUP(A10,dryadHitList!A10:A101,1,0)</f>
+        <v>Bounding Box</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f>VLOOKUP(A11,dryadHitList!A11:A102,1,0)</f>
+        <v>Distribution Contact</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D12" t="str">
+        <f>VLOOKUP(A12,dryadHitList!A12:A103,1,0)</f>
+        <v>Purpose</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D13" t="str">
+        <f>VLOOKUP(A13,dryadHitList!A13:A104,1,0)</f>
+        <v>Resource Long Name</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D14" t="str">
+        <f>VLOOKUP(A14,dryadHitList!A14:A105,1,0)</f>
+        <v>Naming Authority</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D15" t="str">
+        <f>VLOOKUP(A15,dryadHitList!A15:A106,1,0)</f>
+        <v>Author / Originator Identifier Type</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D16" t="str">
+        <f>VLOOKUP(A16,dryadHitList!A16:A107,1,0)</f>
+        <v>Metadata Standard Citation</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17" t="str">
+        <f>VLOOKUP(A17,dryadHitList!A17:A108,1,0)</f>
+        <v>Resource Update Frequency</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18" t="str">
+        <f>VLOOKUP(A18,dryadHitList!A18:A109,1,0)</f>
+        <v>Common Data Model Datatype</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D19" t="str">
+        <f>VLOOKUP(A19,dryadHitList!A19:A110,1,0)</f>
+        <v>Metadata Standard Version</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20" t="str">
+        <f>VLOOKUP(A20,dryadHitList!A20:A111,1,0)</f>
+        <v>Resource Access Constraints</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D21" t="str">
+        <f>VLOOKUP(A21,dryadHitList!A21:A112,1,0)</f>
+        <v>Ordering Instructions</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D22" t="str">
+        <f>VLOOKUP(A22,dryadHitList!A22:A113,1,0)</f>
+        <v>Resource Contact</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D23" t="str">
+        <f>VLOOKUP(A23,dryadHitList!A23:A114,1,0)</f>
+        <v>Coordinate Reference System (CRS)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D24" t="str">
+        <f>VLOOKUP(A24,dryadHitList!A24:A115,1,0)</f>
+        <v>Complete Citation</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D25" t="str">
+        <f>VLOOKUP(A25,dryadHitList!A25:A116,1,0)</f>
+        <v>Supplemental Information</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26" t="e">
+        <f>VLOOKUP(A26,dryadHitList!A26:A117,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D27" t="str">
+        <f>VLOOKUP(A27,dryadHitList!A27:A118,1,0)</f>
+        <v>Vertical Extent</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D28" t="str">
+        <f>VLOOKUP(A28,dryadHitList!A28:A119,1,0)</f>
+        <v>Paleo Temporal Coverage</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D29" t="str">
+        <f>VLOOKUP(A29,dryadHitList!A29:A120,1,0)</f>
+        <v>Project Name</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D30" t="str">
+        <f>VLOOKUP(A30,dryadHitList!A30:A121,1,0)</f>
+        <v>Maintenance</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D31" t="e">
+        <f>VLOOKUP(A31,dryadHitList!A31:A122,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D32" t="e">
+        <f>VLOOKUP(A32,dryadHitList!A32:A123,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D33" t="str">
+        <f>VLOOKUP(A33,dryadHitList!A33:A124,1,0)</f>
+        <v>Organization Name</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D34" t="str">
+        <f>VLOOKUP(A34,dryadHitList!A34:A125,1,0)</f>
+        <v>Standard Name Vocabulary</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D35" t="str">
+        <f>VLOOKUP(A35,dryadHitList!A35:A126,1,0)</f>
+        <v>Related Resource Citation</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D36" t="str">
+        <f>VLOOKUP(A36,dryadHitList!A36:A127,1,0)</f>
+        <v>AssociatedDIFs</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D37" t="str">
+        <f>VLOOKUP(A37,dryadHitList!A37:A128,1,0)</f>
+        <v>Vertical Minimum</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D38" t="str">
+        <f>VLOOKUP(A38,dryadHitList!A38:A129,1,0)</f>
+        <v>Attribute List</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D39" t="str">
+        <f>VLOOKUP(A39,dryadHitList!A39:A130,1,0)</f>
+        <v>Resource Lineage</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D40" t="str">
+        <f>VLOOKUP(A40,dryadHitList!A40:A131,1,0)</f>
+        <v>Processing Level</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D41" t="e">
+        <f>VLOOKUP(A41,dryadHitList!A41:A132,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D42" t="str">
+        <f>VLOOKUP(A42,dryadHitList!A42:A133,1,0)</f>
+        <v>Security Constraints</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D43" t="str">
+        <f>VLOOKUP(A43,dryadHitList!A43:A134,1,0)</f>
+        <v>Attribute Constraints</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D44" t="str">
+        <f>VLOOKUP(A44,dryadHitList!A44:A135,1,0)</f>
+        <v>Place Keyword</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D45" t="str">
+        <f>VLOOKUP(A45,dryadHitList!A45:A136,1,0)</f>
+        <v>Platform Keyword</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D46" t="str">
+        <f>VLOOKUP(A46,dryadHitList!A46:A137,1,0)</f>
+        <v>Acknowledgement</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D47" t="str">
+        <f>VLOOKUP(A47,dryadHitList!A47:A138,1,0)</f>
+        <v>Process Step</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D48" t="str">
+        <f>VLOOKUP(A48,dryadHitList!A48:A139,1,0)</f>
+        <v>Metadata Language</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D49" t="str">
+        <f>VLOOKUP(A49,dryadHitList!A49:A140,1,0)</f>
+        <v>Resource Quality Description</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D50" t="str">
+        <f>VLOOKUP(A50,dryadHitList!A50:A141,1,0)</f>
+        <v>Association</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D51" t="str">
+        <f>VLOOKUP(A51,dryadHitList!A51:A142,1,0)</f>
+        <v>Keyword Vocabulary</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D52" t="str">
+        <f>VLOOKUP(A52,dryadHitList!A52:A143,1,0)</f>
+        <v>Media</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D53" t="str">
+        <f>VLOOKUP(A53,dryadHitList!A53:A144,1,0)</f>
+        <v>Vertical Maximum</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D54" t="str">
+        <f>VLOOKUP(A54,dryadHitList!A54:A145,1,0)</f>
+        <v>Spatial Resolution</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D55" t="str">
+        <f>VLOOKUP(A55,dryadHitList!A55:A146,1,0)</f>
+        <v>Instrument Type</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D56" t="str">
+        <f>VLOOKUP(A56,dryadHitList!A56:A147,1,0)</f>
+        <v>Project Description</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D57" t="str">
+        <f>VLOOKUP(A57,dryadHitList!A57:A148,1,0)</f>
+        <v>Embargo Date</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D58" t="str">
+        <f>VLOOKUP(A58,dryadHitList!A58:A149,1,0)</f>
+        <v>Contributor Role</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D59" t="str">
+        <f>VLOOKUP(A59,dryadHitList!A59:A150,1,0)</f>
+        <v>Online Resource</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D60" t="str">
+        <f>VLOOKUP(A60,dryadHitList!A60:A151,1,0)</f>
+        <v>Resource Cost or Fees</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D61" t="str">
+        <f>VLOOKUP(A61,dryadHitList!A61:A152,1,0)</f>
+        <v>Resource Distribution</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D62" t="str">
+        <f>VLOOKUP(A62,dryadHitList!A62:A153,1,0)</f>
+        <v>Transfer Size</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D63" t="str">
+        <f>VLOOKUP(A63,dryadHitList!A63:A154,1,0)</f>
+        <v>Start Time</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D64" t="str">
+        <f>VLOOKUP(A64,dryadHitList!A64:A155,1,0)</f>
+        <v>Metadata Use Constraints</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D65" t="str">
+        <f>VLOOKUP(A65,dryadHitList!A65:A156,1,0)</f>
+        <v>Temporal Resolution</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D66" t="str">
+        <f>VLOOKUP(A66,dryadHitList!A66:A157,1,0)</f>
+        <v>Sensor Characteristics</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D67" t="str">
+        <f>VLOOKUP(A67,dryadHitList!A67:A158,1,0)</f>
+        <v>Southernmost Latitude</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D68" t="str">
+        <f>VLOOKUP(A68,dryadHitList!A68:A159,1,0)</f>
+        <v>Entity Type Definition</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D69" t="str">
+        <f>VLOOKUP(A69,dryadHitList!A69:A160,1,0)</f>
+        <v>Platform</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D70" t="str">
+        <f>VLOOKUP(A70,dryadHitList!A70:A161,1,0)</f>
+        <v>Distribution Liability</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D71" t="str">
+        <f>VLOOKUP(A71,dryadHitList!A71:A162,1,0)</f>
+        <v>Temporal Keyword</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D72" t="str">
+        <f>VLOOKUP(A72,dryadHitList!A72:A163,1,0)</f>
+        <v>Author / Originator Email Address</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D73" t="str">
+        <f>VLOOKUP(A73,dryadHitList!A73:A164,1,0)</f>
+        <v>Responsible Party Identifier Type</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D74" t="str">
+        <f>VLOOKUP(A74,dryadHitList!A74:A165,1,0)</f>
+        <v>Browse File Name</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D75" t="str">
+        <f>VLOOKUP(A75,dryadHitList!A75:A166,1,0)</f>
+        <v>Source Citation</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D76" t="str">
+        <f>VLOOKUP(A76,dryadHitList!A76:A167,1,0)</f>
+        <v>Quality Statement</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D77" t="str">
+        <f>VLOOKUP(A77,dryadHitList!A77:A168,1,0)</f>
+        <v>TwoDCoordinateSystem</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D78" t="str">
+        <f>VLOOKUP(A78,dryadHitList!A78:A169,1,0)</f>
+        <v>Westernmost Longitude</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D79" t="str">
+        <f>VLOOKUP(A79,dryadHitList!A79:A170,1,0)</f>
+        <v>Publisher E-Mail</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D80" t="str">
+        <f>VLOOKUP(A80,dryadHitList!A80:A171,1,0)</f>
+        <v>Instrument</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D81" t="str">
+        <f>VLOOKUP(A81,dryadHitList!A81:A172,1,0)</f>
+        <v>Author / Originator World Wide Web Address</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D82" t="str">
+        <f>VLOOKUP(A82,dryadHitList!A82:A173,1,0)</f>
+        <v>Resource Revision Date</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D83" t="str">
+        <f>VLOOKUP(A83,dryadHitList!A83:A174,1,0)</f>
+        <v>Additional Attributes</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D84" t="str">
+        <f>VLOOKUP(A84,dryadHitList!A84:A175,1,0)</f>
+        <v>End Time</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D85" t="str">
+        <f>VLOOKUP(A85,dryadHitList!A85:A176,1,0)</f>
+        <v>Turnaround</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D86" t="str">
+        <f>VLOOKUP(A86,dryadHitList!A86:A177,1,0)</f>
+        <v>Northernmost Latitude</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D87" t="str">
+        <f>VLOOKUP(A87,dryadHitList!A87:A178,1,0)</f>
+        <v>Attribute Definition</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D88" t="str">
+        <f>VLOOKUP(A88,dryadHitList!A88:A179,1,0)</f>
+        <v>Keyword Type</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D89" t="str">
+        <f>VLOOKUP(A89,dryadHitList!A89:A180,1,0)</f>
+        <v>Publisher URL</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D90" t="str">
+        <f>VLOOKUP(A90,dryadHitList!A90:A181,1,0)</f>
+        <v>Responsible Party Identifier</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D91" t="str">
+        <f>VLOOKUP(A91,dryadHitList!A91:A182,1,0)</f>
+        <v>Resource Status</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>328</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(A92,dryadHitList!A92:A183,1,0)</f>
+        <v>Easternmost Longitude</v>
       </c>
     </row>
   </sheetData>
@@ -23473,7 +23843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
